--- a/xlsx/食品研究_intext.xlsx
+++ b/xlsx/食品研究_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>食品研究</t>
   </si>
@@ -26,46 +26,46 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學</t>
-  </si>
-  <si>
-    <t>政策_政策_政治學_食品研究</t>
+    <t>科学</t>
+  </si>
+  <si>
+    <t>政策_政策_政治学_食品研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>藝術</t>
+    <t>艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>歷史</t>
+    <t>历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>社會</t>
+    <t>社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A%E5%AD%B8</t>
   </si>
   <si>
-    <t>營養學</t>
+    <t>营养学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%A3%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>美食學</t>
+    <t>美食学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E5%85%8B%E5%B0%94%C2%B7%E6%B3%A2%E4%BC%A6</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E8%82%A5%E6%96%99</t>
   </si>
   <si>
-    <t>化學肥料</t>
+    <t>化学肥料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E5%9B%A0%E6%94%B9%E9%80%A0%E9%A3%9F%E5%93%81</t>
@@ -113,73 +113,70 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A</t>
   </si>
   <si>
-    <t>农业</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E9%A4%8A</t>
   </si>
   <si>
-    <t>營養</t>
+    <t>营养</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-社會科學</t>
+    <t>Template talk-社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會科學</t>
+    <t>社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
+    <t>地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>人文地理學</t>
+    <t>人文地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>環境地理學</t>
+    <t>环境地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>歷史學</t>
+    <t>历史学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
+    <t>法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>國際關係</t>
+    <t>国际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%94%BF%E7%AD%96</t>
@@ -191,19 +188,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
+    <t>社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%AF%E7%BD%AA%E5%AD%B8</t>
   </si>
   <si>
-    <t>犯罪學</t>
+    <t>犯罪学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%AD%A6</t>
@@ -215,13 +212,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%89%E6%9D%91%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>鄉村社會學</t>
+    <t>乡村社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E7%B1%BB%E5%AD%A6</t>
@@ -233,37 +230,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>考古學</t>
+    <t>考古学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>文化人類學</t>
+    <t>文化人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AA%9E%E8%A8%80%E5%AD%B8</t>
   </si>
   <si>
-    <t>語言學</t>
+    <t>语言学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E8%88%87%E5%8B%95%E7%89%A9%E9%97%9C%E4%BF%82%E5%AD%B8</t>
   </si>
   <si>
-    <t>人與動物關係學</t>
+    <t>人与动物关系学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>區域研究</t>
+    <t>区域研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>商學</t>
+    <t>商学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A5%9E%E7%BB%8F%E7%A7%91%E5%AD%A6</t>
@@ -275,13 +272,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AA%8D%E7%9F%A5%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>認知科學</t>
+    <t>认知科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E6%92%AD%E5%AD%B8</t>
   </si>
   <si>
-    <t>傳播學</t>
+    <t>传播学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Community_studies</t>
@@ -305,7 +302,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%99%E8%82%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>教育學</t>
+    <t>教育学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Environmental_social_science</t>
@@ -341,7 +338,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類生態學</t>
+    <t>人类生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E5%AD%A6</t>
@@ -353,25 +350,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>國際研究</t>
+    <t>国际研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AA%92%E9%AB%94%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>媒體研究</t>
+    <t>媒体研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>科學哲學</t>
+    <t>科学哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟哲學</t>
+    <t>经济哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%93%B2%E5%AD%A6</t>
@@ -395,13 +392,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E5%B8%82%E8%A6%8F%E5%8A%83</t>
   </si>
   <si>
-    <t>城市規劃</t>
+    <t>城市规划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治生態學</t>
+    <t>政治生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -413,25 +410,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%9B%E7%94%9F</t>
   </si>
   <si>
-    <t>公共衛生</t>
+    <t>公共卫生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>區域經濟學</t>
+    <t>区域经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%8A%80%E8%88%87%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>科技與社會</t>
+    <t>科技与社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%B8%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>科學研究</t>
+    <t>科学研究</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Geisteswissenschaft</t>
@@ -443,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%96%87%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>人文科學</t>
+    <t>人文科学</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1246,7 @@
         <v>31</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1275,10 +1272,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
@@ -1304,10 +1301,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -1333,10 +1330,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
@@ -1362,10 +1359,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1391,10 +1388,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
@@ -1420,10 +1417,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>3</v>
@@ -1449,10 +1446,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1478,10 +1475,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1507,10 +1504,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1536,10 +1533,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1565,10 +1562,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1594,10 +1591,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1623,10 +1620,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -1652,10 +1649,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1681,10 +1678,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1710,10 +1707,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1739,10 +1736,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1768,10 +1765,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1797,10 +1794,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1826,10 +1823,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1855,10 +1852,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>3</v>
@@ -1884,10 +1881,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1913,10 +1910,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1942,10 +1939,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1971,10 +1968,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2000,10 +1997,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2029,10 +2026,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2058,10 +2055,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2087,10 +2084,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2116,10 +2113,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2145,10 +2142,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2174,10 +2171,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2203,10 +2200,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2232,10 +2229,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2261,10 +2258,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2290,10 +2287,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2319,10 +2316,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2348,10 +2345,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2377,10 +2374,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2406,10 +2403,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2435,10 +2432,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2464,10 +2461,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2493,10 +2490,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>5</v>
@@ -2522,10 +2519,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2551,10 +2548,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2580,10 +2577,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2609,10 +2606,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2638,10 +2635,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2667,10 +2664,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2696,10 +2693,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2725,10 +2722,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2754,10 +2751,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2783,10 +2780,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2812,10 +2809,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2841,10 +2838,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
